--- a/automate.xlsx
+++ b/automate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujal Karmakar\Desktop\Desktop\automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujal Karmakar\Desktop\Desktop\dataAnalyst Python\python_data_analytics_project\integrating_python_and_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987679C-10E2-413F-A026-C92E8007167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB0863-C02C-4BE7-9F20-2BB80C3A3068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>GPN</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>Tanushree Karmakar</t>
+  </si>
+  <si>
+    <t>UNQ_NO</t>
   </si>
 </sst>
 </file>
@@ -419,9 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -432,13 +430,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,7 +444,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -455,7 +453,7 @@
         <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -464,7 +462,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -473,7 +471,7 @@
         <v>541</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -482,7 +480,7 @@
         <v>778</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -491,7 +489,7 @@
         <v>789</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
     </row>
